--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N2">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O2">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P2">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q2">
-        <v>172629.7962582406</v>
+        <v>183523.7075414164</v>
       </c>
       <c r="R2">
-        <v>690519.1850329622</v>
+        <v>734094.8301656655</v>
       </c>
       <c r="S2">
-        <v>0.1320654525558835</v>
+        <v>0.1707226940574349</v>
       </c>
       <c r="T2">
-        <v>0.08169777249560325</v>
+        <v>0.1180691879973381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N3">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O3">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P3">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q3">
-        <v>34436.38917201534</v>
+        <v>32038.32502767506</v>
       </c>
       <c r="R3">
-        <v>206618.335032092</v>
+        <v>192229.9501660504</v>
       </c>
       <c r="S3">
-        <v>0.02634456750206375</v>
+        <v>0.02980361085271814</v>
       </c>
       <c r="T3">
-        <v>0.02444574762693436</v>
+        <v>0.03091757793710707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N4">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O4">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P4">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q4">
-        <v>426.3774086312127</v>
+        <v>72.54773104166584</v>
       </c>
       <c r="R4">
-        <v>2558.264451787276</v>
+        <v>435.2863862499951</v>
       </c>
       <c r="S4">
-        <v>0.0003261877535107036</v>
+        <v>6.748743395123654E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003026773356857987</v>
+        <v>7.000990615781121E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N5">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O5">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P5">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q5">
-        <v>25138.807549909</v>
+        <v>24402.60106073422</v>
       </c>
       <c r="R5">
-        <v>100555.230199636</v>
+        <v>97610.40424293687</v>
       </c>
       <c r="S5">
-        <v>0.01923172052423431</v>
+        <v>0.02270048840505901</v>
       </c>
       <c r="T5">
-        <v>0.01189704572755748</v>
+        <v>0.01569930844827589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N6">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O6">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P6">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q6">
-        <v>112298.1899981793</v>
+        <v>382.6363105895051</v>
       </c>
       <c r="R6">
-        <v>673789.1399890756</v>
+        <v>2295.81786353703</v>
       </c>
       <c r="S6">
-        <v>0.08591049520287075</v>
+        <v>0.0003559469382084909</v>
       </c>
       <c r="T6">
-        <v>0.07971838156271932</v>
+        <v>0.0003692511373175433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H7">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I7">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J7">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N7">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O7">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P7">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q7">
-        <v>238.0702158429145</v>
+        <v>320.7949951444001</v>
       </c>
       <c r="R7">
-        <v>1428.421295057487</v>
+        <v>1924.7699708664</v>
       </c>
       <c r="S7">
-        <v>0.0001821287603696081</v>
+        <v>0.0002984191336633403</v>
       </c>
       <c r="T7">
-        <v>0.0001690015868073395</v>
+        <v>0.0003095731208058916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N8">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O8">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P8">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q8">
-        <v>55226.10709444325</v>
+        <v>63105.7091198256</v>
       </c>
       <c r="R8">
-        <v>331356.6425666595</v>
+        <v>378634.2547189536</v>
       </c>
       <c r="S8">
-        <v>0.04224914229416626</v>
+        <v>0.05870400514282416</v>
       </c>
       <c r="T8">
-        <v>0.03920397895682742</v>
+        <v>0.06089817986125227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N9">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O9">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P9">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q9">
-        <v>11016.56699817174</v>
+        <v>11016.56699817175</v>
       </c>
       <c r="R9">
-        <v>99149.10298354569</v>
+        <v>99149.10298354572</v>
       </c>
       <c r="S9">
-        <v>0.008427907219732418</v>
+        <v>0.01024814735048695</v>
       </c>
       <c r="T9">
-        <v>0.01173068183225957</v>
+        <v>0.01594678725266307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N10">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O10">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P10">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q10">
-        <v>136.4026659481996</v>
+        <v>24.94596514941011</v>
       </c>
       <c r="R10">
-        <v>1227.623993533796</v>
+        <v>224.513686344691</v>
       </c>
       <c r="S10">
-        <v>0.0001043509301333492</v>
+        <v>2.320595215312479E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001452445462888629</v>
+        <v>3.610997864543542E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N11">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O11">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P11">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q11">
-        <v>8042.171792296262</v>
+        <v>8390.978282510543</v>
       </c>
       <c r="R11">
-        <v>48253.03075377757</v>
+        <v>50345.86969506326</v>
       </c>
       <c r="S11">
-        <v>0.006152431853032826</v>
+        <v>0.007805696808104991</v>
       </c>
       <c r="T11">
-        <v>0.005708987113163678</v>
+        <v>0.008097449688583754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J12">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N12">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O12">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P12">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q12">
-        <v>35925.38485114234</v>
+        <v>131.5717518909393</v>
       </c>
       <c r="R12">
-        <v>323328.463660281</v>
+        <v>1184.145767018454</v>
       </c>
       <c r="S12">
-        <v>0.02748368075180365</v>
+        <v>0.0001223944538043317</v>
       </c>
       <c r="T12">
-        <v>0.03825413665256762</v>
+        <v>0.0001904537716888735</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J13">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N13">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O13">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P13">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q13">
-        <v>76.16119303338634</v>
+        <v>110.3072508826134</v>
       </c>
       <c r="R13">
-        <v>685.450737300477</v>
+        <v>992.7652579435202</v>
       </c>
       <c r="S13">
-        <v>5.826492669958203E-05</v>
+        <v>0.0001026131789567255</v>
       </c>
       <c r="T13">
-        <v>8.109810647801872E-05</v>
+        <v>0.0001596728148199969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N14">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O14">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P14">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q14">
-        <v>126421.7420681362</v>
+        <v>173921.1521506116</v>
       </c>
       <c r="R14">
-        <v>758530.4524088169</v>
+        <v>1043526.91290367</v>
       </c>
       <c r="S14">
-        <v>0.09671531184660474</v>
+        <v>0.1617899291949771</v>
       </c>
       <c r="T14">
-        <v>0.08974442662143318</v>
+        <v>0.1678371379241295</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N15">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O15">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P15">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q15">
-        <v>25218.75367998451</v>
+        <v>30361.97598902332</v>
       </c>
       <c r="R15">
-        <v>226968.7831198605</v>
+        <v>273257.7839012099</v>
       </c>
       <c r="S15">
-        <v>0.01929288100798255</v>
+        <v>0.02824418930498905</v>
       </c>
       <c r="T15">
-        <v>0.02685348127734515</v>
+        <v>0.04394980502980381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N16">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O16">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P16">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q16">
-        <v>312.2483832224436</v>
+        <v>68.75179854260389</v>
       </c>
       <c r="R16">
-        <v>2810.235449001992</v>
+        <v>618.766186883435</v>
       </c>
       <c r="S16">
-        <v>0.0002388766304191619</v>
+        <v>6.395627260221147E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003324889175391768</v>
+        <v>9.952014132703983E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H17">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I17">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J17">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N17">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O17">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P17">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q17">
-        <v>18409.86847497019</v>
+        <v>23125.77785623062</v>
       </c>
       <c r="R17">
-        <v>110459.2108498211</v>
+        <v>138754.6671373837</v>
       </c>
       <c r="S17">
-        <v>0.01408393953037045</v>
+        <v>0.02151272525321277</v>
       </c>
       <c r="T17">
-        <v>0.01306882078536569</v>
+        <v>0.02231680459601481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H18">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I18">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J18">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N18">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O18">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P18">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q18">
-        <v>82239.17955293694</v>
+        <v>362.6155382533767</v>
       </c>
       <c r="R18">
-        <v>740152.6159764325</v>
+        <v>3263.53984428039</v>
       </c>
       <c r="S18">
-        <v>0.06291471519340754</v>
+        <v>0.0003373226403664093</v>
       </c>
       <c r="T18">
-        <v>0.08757007964837597</v>
+        <v>0.0005248960809657082</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H19">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I19">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J19">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N19">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O19">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P19">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q19">
-        <v>174.3456348426393</v>
+        <v>304.0099609314667</v>
       </c>
       <c r="R19">
-        <v>1569.110713583754</v>
+        <v>2736.0896483832</v>
       </c>
       <c r="S19">
-        <v>0.0001333781054354738</v>
+        <v>0.0002828048770690989</v>
       </c>
       <c r="T19">
-        <v>0.0001856470506212798</v>
+        <v>0.0004400628771621012</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N20">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O20">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P20">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q20">
-        <v>46915.98011509981</v>
+        <v>56264.94099069603</v>
       </c>
       <c r="R20">
-        <v>187663.9204603992</v>
+        <v>225059.7639627841</v>
       </c>
       <c r="S20">
-        <v>0.035891719044462</v>
+        <v>0.05234038934586407</v>
       </c>
       <c r="T20">
-        <v>0.02220318365039317</v>
+        <v>0.03619780781722951</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N21">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O21">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P21">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q21">
-        <v>9358.853365112443</v>
+        <v>9822.352061605288</v>
       </c>
       <c r="R21">
-        <v>56153.12019067466</v>
+        <v>58934.11236963173</v>
       </c>
       <c r="S21">
-        <v>0.007159721159716816</v>
+        <v>0.009137230434162969</v>
       </c>
       <c r="T21">
-        <v>0.006643674698244645</v>
+        <v>0.009478751936253244</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H22">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I22">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J22">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N22">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O22">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P22">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q22">
-        <v>115.877527857042</v>
+        <v>22.2417793360405</v>
       </c>
       <c r="R22">
-        <v>695.2651671422522</v>
+        <v>133.450676016243</v>
       </c>
       <c r="S22">
-        <v>8.864876451921743E-05</v>
+        <v>2.069038676119214E-05</v>
       </c>
       <c r="T22">
-        <v>8.225928646224917E-05</v>
+        <v>2.146372962656317E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H23">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I23">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J23">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N23">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O23">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P23">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q23">
-        <v>6832.029120653914</v>
+        <v>7481.38170863759</v>
       </c>
       <c r="R23">
-        <v>27328.11648261566</v>
+        <v>29925.52683455036</v>
       </c>
       <c r="S23">
-        <v>0.005226647063548645</v>
+        <v>0.006959545759407598</v>
       </c>
       <c r="T23">
-        <v>0.003233286332259549</v>
+        <v>0.00481311474833646</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H24">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I24">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J24">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N24">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O24">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P24">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q24">
-        <v>30519.52654242202</v>
+        <v>117.309146184057</v>
       </c>
       <c r="R24">
-        <v>183117.1592545322</v>
+        <v>703.854877104342</v>
       </c>
       <c r="S24">
-        <v>0.02334808458319003</v>
+        <v>0.000109126683099512</v>
       </c>
       <c r="T24">
-        <v>0.02166524021501847</v>
+        <v>0.000113205502058803</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H25">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I25">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J25">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N25">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O25">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P25">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q25">
-        <v>64.70086714216652</v>
+        <v>98.34975390216002</v>
       </c>
       <c r="R25">
-        <v>388.205202852999</v>
+        <v>590.0985234129602</v>
       </c>
       <c r="S25">
-        <v>4.949753452240678E-05</v>
+        <v>9.14897326944711E-05</v>
       </c>
       <c r="T25">
-        <v>4.59299336379479E-05</v>
+        <v>9.49093368251527E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N26">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O26">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P26">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q26">
-        <v>127237.3941968647</v>
+        <v>205660.3918169423</v>
       </c>
       <c r="R26">
-        <v>763424.3651811882</v>
+        <v>1233962.350901654</v>
       </c>
       <c r="S26">
-        <v>0.09733930301060729</v>
+        <v>0.1913153162730893</v>
       </c>
       <c r="T26">
-        <v>0.09032344278920473</v>
+        <v>0.1984660929397442</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H27">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I27">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J27">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N27">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O27">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P27">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q27">
-        <v>25381.46089937936</v>
+        <v>35902.79733675955</v>
       </c>
       <c r="R27">
-        <v>228433.1480944143</v>
+        <v>323125.176030836</v>
       </c>
       <c r="S27">
-        <v>0.01941735547895595</v>
+        <v>0.03339853127229592</v>
       </c>
       <c r="T27">
-        <v>0.02702673548828486</v>
+        <v>0.0519702980973835</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H28">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I28">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J28">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N28">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O28">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P28">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q28">
-        <v>314.2629580439973</v>
+        <v>81.298459971947</v>
       </c>
       <c r="R28">
-        <v>2828.366622395976</v>
+        <v>731.686139747523</v>
       </c>
       <c r="S28">
-        <v>0.0002404178228510766</v>
+        <v>7.562778833900298E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003346340809338034</v>
+        <v>0.0001176817828418722</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H29">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I29">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J29">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N29">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O29">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P29">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q29">
-        <v>18528.64589541681</v>
+        <v>27346.05007023715</v>
       </c>
       <c r="R29">
-        <v>111171.8753725009</v>
+        <v>164076.3004214229</v>
       </c>
       <c r="S29">
-        <v>0.01417480677417602</v>
+        <v>0.02543862807897348</v>
       </c>
       <c r="T29">
-        <v>0.01315313865125786</v>
+        <v>0.0263894455652179</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H30">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I30">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J30">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N30">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O30">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P30">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q30">
-        <v>82769.77311042081</v>
+        <v>428.790016360518</v>
       </c>
       <c r="R30">
-        <v>744927.9579937874</v>
+        <v>3859.110147244662</v>
       </c>
       <c r="S30">
-        <v>0.06332063050936794</v>
+        <v>0.0003988813639321174</v>
       </c>
       <c r="T30">
-        <v>0.08813506728981846</v>
+        <v>0.0006206854792515553</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H31">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I31">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J31">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N31">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O31">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P31">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q31">
-        <v>175.470483985418</v>
+        <v>359.48938302384</v>
       </c>
       <c r="R31">
-        <v>1579.234355868762</v>
+        <v>3235.404447214561</v>
       </c>
       <c r="S31">
-        <v>0.0001342386388678132</v>
+        <v>0.0003344145384651452</v>
       </c>
       <c r="T31">
-        <v>0.0001868448146257483</v>
+        <v>0.000520370884289421</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H32">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I32">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J32">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N32">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O32">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P32">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q32">
-        <v>125319.7762695397</v>
+        <v>137014.2366177636</v>
       </c>
       <c r="R32">
-        <v>751918.6576172385</v>
+        <v>822085.4197065815</v>
       </c>
       <c r="S32">
-        <v>0.09587228465751486</v>
+        <v>0.1274573182558914</v>
       </c>
       <c r="T32">
-        <v>0.08896216174251574</v>
+        <v>0.1322212798410561</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H33">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I33">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J33">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N33">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O33">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P33">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q33">
-        <v>24998.93228230441</v>
+        <v>23919.01681251753</v>
       </c>
       <c r="R33">
-        <v>224990.3905407397</v>
+        <v>215271.1513126577</v>
       </c>
       <c r="S33">
-        <v>0.01912471298024149</v>
+        <v>0.02225063477707112</v>
       </c>
       <c r="T33">
-        <v>0.02661941063841237</v>
+        <v>0.03462344235417336</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H34">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I34">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J34">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N34">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O34">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P34">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q34">
-        <v>309.5266438020778</v>
+        <v>54.16233205065056</v>
       </c>
       <c r="R34">
-        <v>2785.7397942187</v>
+        <v>487.460988455855</v>
       </c>
       <c r="S34">
-        <v>0.0002367944420827284</v>
+        <v>5.038444007041255E-05</v>
       </c>
       <c r="T34">
-        <v>0.0003295907497909185</v>
+        <v>7.840148264546991E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H35">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I35">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J35">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N35">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O35">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P35">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q35">
-        <v>18249.39730059623</v>
+        <v>18218.37516588851</v>
       </c>
       <c r="R35">
-        <v>109496.3838035774</v>
+        <v>109310.2509953311</v>
       </c>
       <c r="S35">
-        <v>0.01396117568122491</v>
+        <v>0.01694762018126538</v>
       </c>
       <c r="T35">
-        <v>0.01295490530454834</v>
+        <v>0.01758106997142506</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H36">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I36">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J36">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N36">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O36">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P36">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q36">
-        <v>81522.33479435796</v>
+        <v>285.6667549930967</v>
       </c>
       <c r="R36">
-        <v>733701.0131492217</v>
+        <v>2571.00079493787</v>
       </c>
       <c r="S36">
-        <v>0.06236631376152247</v>
+        <v>0.0002657411332214973</v>
       </c>
       <c r="T36">
-        <v>0.08680676764860251</v>
+        <v>0.0004135105761885296</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H37">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I37">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J37">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N37">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O37">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P37">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q37">
-        <v>172.8259363826417</v>
+        <v>239.4975666050667</v>
       </c>
       <c r="R37">
-        <v>1555.433427443775</v>
+        <v>2155.4780994456</v>
       </c>
       <c r="S37">
-        <v>0.000132215503907706</v>
+        <v>0.0002227923048132061</v>
       </c>
       <c r="T37">
-        <v>0.0001840288424155687</v>
+        <v>0.0003466793913943718</v>
       </c>
     </row>
   </sheetData>
